--- a/daily-status/web/app/student_activity.xlsx
+++ b/daily-status/web/app/student_activity.xlsx
@@ -3899,7 +3899,11 @@
       <c r="H4" s="3" t="n"/>
       <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="L4" s="2" t="n"/>
       <c r="M4" s="3" t="n"/>
       <c r="N4" s="3" t="n"/>

--- a/daily-status/web/app/student_activity.xlsx
+++ b/daily-status/web/app/student_activity.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Journee-January" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Braxton-January" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Zi-January" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Cami-January" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5229,4 +5230,797 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Cami</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+      <c r="X1" s="3" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="3" t="n"/>
+      <c r="AD1" s="3" t="n"/>
+      <c r="AE1" s="3" t="n"/>
+      <c r="AF1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC2" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AD2" s="3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE2" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF2" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="3" t="n"/>
+      <c r="V3" s="3" t="n"/>
+      <c r="W3" s="3" t="n"/>
+      <c r="X3" s="3" t="n"/>
+      <c r="Y3" s="2" t="n"/>
+      <c r="Z3" s="2" t="n"/>
+      <c r="AA3" s="2" t="n"/>
+      <c r="AB3" s="2" t="n"/>
+      <c r="AC3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n"/>
+      <c r="AE3" s="3" t="n"/>
+      <c r="AF3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7:45</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="3" t="n"/>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="n"/>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="3" t="n"/>
+      <c r="V4" s="3" t="n"/>
+      <c r="W4" s="3" t="n"/>
+      <c r="X4" s="3" t="n"/>
+      <c r="Y4" s="2" t="n"/>
+      <c r="Z4" s="2" t="n"/>
+      <c r="AA4" s="2" t="n"/>
+      <c r="AB4" s="2" t="n"/>
+      <c r="AC4" s="3" t="n"/>
+      <c r="AD4" s="3" t="n"/>
+      <c r="AE4" s="3" t="n"/>
+      <c r="AF4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
+      <c r="W5" s="3" t="n"/>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="2" t="n"/>
+      <c r="Z5" s="2" t="n"/>
+      <c r="AA5" s="2" t="n"/>
+      <c r="AB5" s="2" t="n"/>
+      <c r="AC5" s="3" t="n"/>
+      <c r="AD5" s="3" t="n"/>
+      <c r="AE5" s="3" t="n"/>
+      <c r="AF5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="n"/>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="3" t="n"/>
+      <c r="V6" s="3" t="n"/>
+      <c r="W6" s="3" t="n"/>
+      <c r="X6" s="3" t="n"/>
+      <c r="Y6" s="2" t="n"/>
+      <c r="Z6" s="2" t="n"/>
+      <c r="AA6" s="2" t="n"/>
+      <c r="AB6" s="2" t="n"/>
+      <c r="AC6" s="3" t="n"/>
+      <c r="AD6" s="3" t="n"/>
+      <c r="AE6" s="3" t="n"/>
+      <c r="AF6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="n"/>
+      <c r="Q7" s="2" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="n"/>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="3" t="n"/>
+      <c r="V7" s="3" t="n"/>
+      <c r="W7" s="3" t="n"/>
+      <c r="X7" s="3" t="n"/>
+      <c r="Y7" s="2" t="n"/>
+      <c r="Z7" s="2" t="n"/>
+      <c r="AA7" s="2" t="n"/>
+      <c r="AB7" s="2" t="n"/>
+      <c r="AC7" s="3" t="n"/>
+      <c r="AD7" s="3" t="n"/>
+      <c r="AE7" s="3" t="n"/>
+      <c r="AF7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="n"/>
+      <c r="P8" s="3" t="n"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="n"/>
+      <c r="T8" s="2" t="n"/>
+      <c r="U8" s="3" t="n"/>
+      <c r="V8" s="3" t="n"/>
+      <c r="W8" s="3" t="n"/>
+      <c r="X8" s="3" t="n"/>
+      <c r="Y8" s="2" t="n"/>
+      <c r="Z8" s="2" t="n"/>
+      <c r="AA8" s="2" t="n"/>
+      <c r="AB8" s="2" t="n"/>
+      <c r="AC8" s="3" t="n"/>
+      <c r="AD8" s="3" t="n"/>
+      <c r="AE8" s="3" t="n"/>
+      <c r="AF8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
+      <c r="P9" s="3" t="n"/>
+      <c r="Q9" s="2" t="n"/>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="2" t="n"/>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="3" t="n"/>
+      <c r="V9" s="3" t="n"/>
+      <c r="W9" s="3" t="n"/>
+      <c r="X9" s="3" t="n"/>
+      <c r="Y9" s="2" t="n"/>
+      <c r="Z9" s="2" t="n"/>
+      <c r="AA9" s="2" t="n"/>
+      <c r="AB9" s="2" t="n"/>
+      <c r="AC9" s="3" t="n"/>
+      <c r="AD9" s="3" t="n"/>
+      <c r="AE9" s="3" t="n"/>
+      <c r="AF9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="3" t="n"/>
+      <c r="O10" s="3" t="n"/>
+      <c r="P10" s="3" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="n"/>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="3" t="n"/>
+      <c r="V10" s="3" t="n"/>
+      <c r="W10" s="3" t="n"/>
+      <c r="X10" s="3" t="n"/>
+      <c r="Y10" s="2" t="n"/>
+      <c r="Z10" s="2" t="n"/>
+      <c r="AA10" s="2" t="n"/>
+      <c r="AB10" s="2" t="n"/>
+      <c r="AC10" s="3" t="n"/>
+      <c r="AD10" s="3" t="n"/>
+      <c r="AE10" s="3" t="n"/>
+      <c r="AF10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="3" t="n"/>
+      <c r="P11" s="3" t="n"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="3" t="n"/>
+      <c r="V11" s="3" t="n"/>
+      <c r="W11" s="3" t="n"/>
+      <c r="X11" s="3" t="n"/>
+      <c r="Y11" s="2" t="n"/>
+      <c r="Z11" s="2" t="n"/>
+      <c r="AA11" s="2" t="n"/>
+      <c r="AB11" s="2" t="n"/>
+      <c r="AC11" s="3" t="n"/>
+      <c r="AD11" s="3" t="n"/>
+      <c r="AE11" s="3" t="n"/>
+      <c r="AF11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
+      <c r="P12" s="3" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="2" t="n"/>
+      <c r="T12" s="2" t="n"/>
+      <c r="U12" s="3" t="n"/>
+      <c r="V12" s="3" t="n"/>
+      <c r="W12" s="3" t="n"/>
+      <c r="X12" s="3" t="n"/>
+      <c r="Y12" s="2" t="n"/>
+      <c r="Z12" s="2" t="n"/>
+      <c r="AA12" s="2" t="n"/>
+      <c r="AB12" s="2" t="n"/>
+      <c r="AC12" s="3" t="n"/>
+      <c r="AD12" s="3" t="n"/>
+      <c r="AE12" s="3" t="n"/>
+      <c r="AF12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="3" t="n"/>
+      <c r="P13" s="3" t="n"/>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="2" t="n"/>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="3" t="n"/>
+      <c r="V13" s="3" t="n"/>
+      <c r="W13" s="3" t="n"/>
+      <c r="X13" s="3" t="n"/>
+      <c r="Y13" s="2" t="n"/>
+      <c r="Z13" s="2" t="n"/>
+      <c r="AA13" s="2" t="n"/>
+      <c r="AB13" s="2" t="n"/>
+      <c r="AC13" s="3" t="n"/>
+      <c r="AD13" s="3" t="n"/>
+      <c r="AE13" s="3" t="n"/>
+      <c r="AF13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="2" t="n"/>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="3" t="n"/>
+      <c r="V14" s="3" t="n"/>
+      <c r="W14" s="3" t="n"/>
+      <c r="X14" s="3" t="n"/>
+      <c r="Y14" s="2" t="n"/>
+      <c r="Z14" s="2" t="n"/>
+      <c r="AA14" s="2" t="n"/>
+      <c r="AB14" s="2" t="n"/>
+      <c r="AC14" s="3" t="n"/>
+      <c r="AD14" s="3" t="n"/>
+      <c r="AE14" s="3" t="n"/>
+      <c r="AF14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1:30</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="n"/>
+      <c r="Q15" s="2" t="n"/>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="2" t="n"/>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="3" t="n"/>
+      <c r="V15" s="3" t="n"/>
+      <c r="W15" s="3" t="n"/>
+      <c r="X15" s="3" t="n"/>
+      <c r="Y15" s="2" t="n"/>
+      <c r="Z15" s="2" t="n"/>
+      <c r="AA15" s="2" t="n"/>
+      <c r="AB15" s="2" t="n"/>
+      <c r="AC15" s="3" t="n"/>
+      <c r="AD15" s="3" t="n"/>
+      <c r="AE15" s="3" t="n"/>
+      <c r="AF15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="3" t="n"/>
+      <c r="P16" s="3" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="3" t="n"/>
+      <c r="V16" s="3" t="n"/>
+      <c r="W16" s="3" t="n"/>
+      <c r="X16" s="3" t="n"/>
+      <c r="Y16" s="2" t="n"/>
+      <c r="Z16" s="2" t="n"/>
+      <c r="AA16" s="2" t="n"/>
+      <c r="AB16" s="2" t="n"/>
+      <c r="AC16" s="3" t="n"/>
+      <c r="AD16" s="3" t="n"/>
+      <c r="AE16" s="3" t="n"/>
+      <c r="AF16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="3" t="n"/>
+      <c r="P17" s="3" t="n"/>
+      <c r="Q17" s="2" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="2" t="n"/>
+      <c r="T17" s="2" t="n"/>
+      <c r="U17" s="3" t="n"/>
+      <c r="V17" s="3" t="n"/>
+      <c r="W17" s="3" t="n"/>
+      <c r="X17" s="3" t="n"/>
+      <c r="Y17" s="2" t="n"/>
+      <c r="Z17" s="2" t="n"/>
+      <c r="AA17" s="2" t="n"/>
+      <c r="AB17" s="2" t="n"/>
+      <c r="AC17" s="3" t="n"/>
+      <c r="AD17" s="3" t="n"/>
+      <c r="AE17" s="3" t="n"/>
+      <c r="AF17" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/daily-status/web/app/student_activity.xlsx
+++ b/daily-status/web/app/student_activity.xlsx
@@ -14,6 +14,7 @@
     <sheet name="Braxton-January" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Zi-January" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Cami-January" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Arturo-January" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3902,7 +3903,7 @@
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L4" s="2" t="n"/>
@@ -6023,4 +6024,797 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Arturo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+      <c r="X1" s="3" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="3" t="n"/>
+      <c r="AD1" s="3" t="n"/>
+      <c r="AE1" s="3" t="n"/>
+      <c r="AF1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC2" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AD2" s="3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE2" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF2" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="3" t="n"/>
+      <c r="V3" s="3" t="n"/>
+      <c r="W3" s="3" t="n"/>
+      <c r="X3" s="3" t="n"/>
+      <c r="Y3" s="2" t="n"/>
+      <c r="Z3" s="2" t="n"/>
+      <c r="AA3" s="2" t="n"/>
+      <c r="AB3" s="2" t="n"/>
+      <c r="AC3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n"/>
+      <c r="AE3" s="3" t="n"/>
+      <c r="AF3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7:45</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="3" t="n"/>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="n"/>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="3" t="n"/>
+      <c r="V4" s="3" t="n"/>
+      <c r="W4" s="3" t="n"/>
+      <c r="X4" s="3" t="n"/>
+      <c r="Y4" s="2" t="n"/>
+      <c r="Z4" s="2" t="n"/>
+      <c r="AA4" s="2" t="n"/>
+      <c r="AB4" s="2" t="n"/>
+      <c r="AC4" s="3" t="n"/>
+      <c r="AD4" s="3" t="n"/>
+      <c r="AE4" s="3" t="n"/>
+      <c r="AF4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
+      <c r="W5" s="3" t="n"/>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="2" t="n"/>
+      <c r="Z5" s="2" t="n"/>
+      <c r="AA5" s="2" t="n"/>
+      <c r="AB5" s="2" t="n"/>
+      <c r="AC5" s="3" t="n"/>
+      <c r="AD5" s="3" t="n"/>
+      <c r="AE5" s="3" t="n"/>
+      <c r="AF5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="n"/>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="3" t="n"/>
+      <c r="V6" s="3" t="n"/>
+      <c r="W6" s="3" t="n"/>
+      <c r="X6" s="3" t="n"/>
+      <c r="Y6" s="2" t="n"/>
+      <c r="Z6" s="2" t="n"/>
+      <c r="AA6" s="2" t="n"/>
+      <c r="AB6" s="2" t="n"/>
+      <c r="AC6" s="3" t="n"/>
+      <c r="AD6" s="3" t="n"/>
+      <c r="AE6" s="3" t="n"/>
+      <c r="AF6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="n"/>
+      <c r="Q7" s="2" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="n"/>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="3" t="n"/>
+      <c r="V7" s="3" t="n"/>
+      <c r="W7" s="3" t="n"/>
+      <c r="X7" s="3" t="n"/>
+      <c r="Y7" s="2" t="n"/>
+      <c r="Z7" s="2" t="n"/>
+      <c r="AA7" s="2" t="n"/>
+      <c r="AB7" s="2" t="n"/>
+      <c r="AC7" s="3" t="n"/>
+      <c r="AD7" s="3" t="n"/>
+      <c r="AE7" s="3" t="n"/>
+      <c r="AF7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="n"/>
+      <c r="P8" s="3" t="n"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="n"/>
+      <c r="T8" s="2" t="n"/>
+      <c r="U8" s="3" t="n"/>
+      <c r="V8" s="3" t="n"/>
+      <c r="W8" s="3" t="n"/>
+      <c r="X8" s="3" t="n"/>
+      <c r="Y8" s="2" t="n"/>
+      <c r="Z8" s="2" t="n"/>
+      <c r="AA8" s="2" t="n"/>
+      <c r="AB8" s="2" t="n"/>
+      <c r="AC8" s="3" t="n"/>
+      <c r="AD8" s="3" t="n"/>
+      <c r="AE8" s="3" t="n"/>
+      <c r="AF8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
+      <c r="P9" s="3" t="n"/>
+      <c r="Q9" s="2" t="n"/>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="2" t="n"/>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="3" t="n"/>
+      <c r="V9" s="3" t="n"/>
+      <c r="W9" s="3" t="n"/>
+      <c r="X9" s="3" t="n"/>
+      <c r="Y9" s="2" t="n"/>
+      <c r="Z9" s="2" t="n"/>
+      <c r="AA9" s="2" t="n"/>
+      <c r="AB9" s="2" t="n"/>
+      <c r="AC9" s="3" t="n"/>
+      <c r="AD9" s="3" t="n"/>
+      <c r="AE9" s="3" t="n"/>
+      <c r="AF9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="3" t="n"/>
+      <c r="O10" s="3" t="n"/>
+      <c r="P10" s="3" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="n"/>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="3" t="n"/>
+      <c r="V10" s="3" t="n"/>
+      <c r="W10" s="3" t="n"/>
+      <c r="X10" s="3" t="n"/>
+      <c r="Y10" s="2" t="n"/>
+      <c r="Z10" s="2" t="n"/>
+      <c r="AA10" s="2" t="n"/>
+      <c r="AB10" s="2" t="n"/>
+      <c r="AC10" s="3" t="n"/>
+      <c r="AD10" s="3" t="n"/>
+      <c r="AE10" s="3" t="n"/>
+      <c r="AF10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="3" t="n"/>
+      <c r="P11" s="3" t="n"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="3" t="n"/>
+      <c r="V11" s="3" t="n"/>
+      <c r="W11" s="3" t="n"/>
+      <c r="X11" s="3" t="n"/>
+      <c r="Y11" s="2" t="n"/>
+      <c r="Z11" s="2" t="n"/>
+      <c r="AA11" s="2" t="n"/>
+      <c r="AB11" s="2" t="n"/>
+      <c r="AC11" s="3" t="n"/>
+      <c r="AD11" s="3" t="n"/>
+      <c r="AE11" s="3" t="n"/>
+      <c r="AF11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
+      <c r="P12" s="3" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="2" t="n"/>
+      <c r="T12" s="2" t="n"/>
+      <c r="U12" s="3" t="n"/>
+      <c r="V12" s="3" t="n"/>
+      <c r="W12" s="3" t="n"/>
+      <c r="X12" s="3" t="n"/>
+      <c r="Y12" s="2" t="n"/>
+      <c r="Z12" s="2" t="n"/>
+      <c r="AA12" s="2" t="n"/>
+      <c r="AB12" s="2" t="n"/>
+      <c r="AC12" s="3" t="n"/>
+      <c r="AD12" s="3" t="n"/>
+      <c r="AE12" s="3" t="n"/>
+      <c r="AF12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="3" t="n"/>
+      <c r="P13" s="3" t="n"/>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="2" t="n"/>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="3" t="n"/>
+      <c r="V13" s="3" t="n"/>
+      <c r="W13" s="3" t="n"/>
+      <c r="X13" s="3" t="n"/>
+      <c r="Y13" s="2" t="n"/>
+      <c r="Z13" s="2" t="n"/>
+      <c r="AA13" s="2" t="n"/>
+      <c r="AB13" s="2" t="n"/>
+      <c r="AC13" s="3" t="n"/>
+      <c r="AD13" s="3" t="n"/>
+      <c r="AE13" s="3" t="n"/>
+      <c r="AF13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="2" t="n"/>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="3" t="n"/>
+      <c r="V14" s="3" t="n"/>
+      <c r="W14" s="3" t="n"/>
+      <c r="X14" s="3" t="n"/>
+      <c r="Y14" s="2" t="n"/>
+      <c r="Z14" s="2" t="n"/>
+      <c r="AA14" s="2" t="n"/>
+      <c r="AB14" s="2" t="n"/>
+      <c r="AC14" s="3" t="n"/>
+      <c r="AD14" s="3" t="n"/>
+      <c r="AE14" s="3" t="n"/>
+      <c r="AF14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1:30</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="n"/>
+      <c r="Q15" s="2" t="n"/>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="2" t="n"/>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="3" t="n"/>
+      <c r="V15" s="3" t="n"/>
+      <c r="W15" s="3" t="n"/>
+      <c r="X15" s="3" t="n"/>
+      <c r="Y15" s="2" t="n"/>
+      <c r="Z15" s="2" t="n"/>
+      <c r="AA15" s="2" t="n"/>
+      <c r="AB15" s="2" t="n"/>
+      <c r="AC15" s="3" t="n"/>
+      <c r="AD15" s="3" t="n"/>
+      <c r="AE15" s="3" t="n"/>
+      <c r="AF15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="3" t="n"/>
+      <c r="P16" s="3" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="3" t="n"/>
+      <c r="V16" s="3" t="n"/>
+      <c r="W16" s="3" t="n"/>
+      <c r="X16" s="3" t="n"/>
+      <c r="Y16" s="2" t="n"/>
+      <c r="Z16" s="2" t="n"/>
+      <c r="AA16" s="2" t="n"/>
+      <c r="AB16" s="2" t="n"/>
+      <c r="AC16" s="3" t="n"/>
+      <c r="AD16" s="3" t="n"/>
+      <c r="AE16" s="3" t="n"/>
+      <c r="AF16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="3" t="n"/>
+      <c r="P17" s="3" t="n"/>
+      <c r="Q17" s="2" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="2" t="n"/>
+      <c r="T17" s="2" t="n"/>
+      <c r="U17" s="3" t="n"/>
+      <c r="V17" s="3" t="n"/>
+      <c r="W17" s="3" t="n"/>
+      <c r="X17" s="3" t="n"/>
+      <c r="Y17" s="2" t="n"/>
+      <c r="Z17" s="2" t="n"/>
+      <c r="AA17" s="2" t="n"/>
+      <c r="AB17" s="2" t="n"/>
+      <c r="AC17" s="3" t="n"/>
+      <c r="AD17" s="3" t="n"/>
+      <c r="AE17" s="3" t="n"/>
+      <c r="AF17" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/daily-status/web/app/student_activity.xlsx
+++ b/daily-status/web/app/student_activity.xlsx
@@ -6263,7 +6263,11 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="3" t="n"/>
       <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="P3" s="3" t="n"/>
       <c r="Q3" s="2" t="n"/>
       <c r="R3" s="2" t="n"/>

--- a/daily-status/web/app/student_activity.xlsx
+++ b/daily-status/web/app/student_activity.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Zi-January" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Cami-January" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Arturo-January" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Joshua-January" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -65,7 +66,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -73,6 +74,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1667,6 +1671,820 @@
       <c r="L8" s="2" t="n"/>
       <c r="M8" s="3" t="n"/>
       <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="inlineStr">
+        <is>
+          <t>(jd) +</t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="n"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="n"/>
+      <c r="T8" s="2" t="n"/>
+      <c r="U8" s="3" t="n"/>
+      <c r="V8" s="3" t="n"/>
+      <c r="W8" s="3" t="n"/>
+      <c r="X8" s="3" t="n"/>
+      <c r="Y8" s="2" t="n"/>
+      <c r="Z8" s="2" t="n"/>
+      <c r="AA8" s="2" t="n"/>
+      <c r="AB8" s="2" t="n"/>
+      <c r="AC8" s="3" t="n"/>
+      <c r="AD8" s="3" t="n"/>
+      <c r="AE8" s="3" t="n"/>
+      <c r="AF8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>W
++</t>
+        </is>
+      </c>
+      <c r="P9" s="3" t="n"/>
+      <c r="Q9" s="2" t="n"/>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="2" t="n"/>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="3" t="n"/>
+      <c r="V9" s="3" t="n"/>
+      <c r="W9" s="3" t="n"/>
+      <c r="X9" s="3" t="n"/>
+      <c r="Y9" s="2" t="n"/>
+      <c r="Z9" s="2" t="n"/>
+      <c r="AA9" s="2" t="n"/>
+      <c r="AB9" s="2" t="n"/>
+      <c r="AC9" s="3" t="n"/>
+      <c r="AD9" s="3" t="n"/>
+      <c r="AE9" s="3" t="n"/>
+      <c r="AF9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="3" t="n"/>
+      <c r="O10" s="3" t="n"/>
+      <c r="P10" s="3" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="n"/>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="3" t="n"/>
+      <c r="V10" s="3" t="n"/>
+      <c r="W10" s="3" t="n"/>
+      <c r="X10" s="3" t="n"/>
+      <c r="Y10" s="2" t="n"/>
+      <c r="Z10" s="2" t="n"/>
+      <c r="AA10" s="2" t="n"/>
+      <c r="AB10" s="2" t="n"/>
+      <c r="AC10" s="3" t="n"/>
+      <c r="AD10" s="3" t="n"/>
+      <c r="AE10" s="3" t="n"/>
+      <c r="AF10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="3" t="n"/>
+      <c r="P11" s="3" t="n"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="3" t="n"/>
+      <c r="V11" s="3" t="n"/>
+      <c r="W11" s="3" t="n"/>
+      <c r="X11" s="3" t="n"/>
+      <c r="Y11" s="2" t="n"/>
+      <c r="Z11" s="2" t="n"/>
+      <c r="AA11" s="2" t="n"/>
+      <c r="AB11" s="2" t="n"/>
+      <c r="AC11" s="3" t="n"/>
+      <c r="AD11" s="3" t="n"/>
+      <c r="AE11" s="3" t="n"/>
+      <c r="AF11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
+      <c r="P12" s="3" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="2" t="n"/>
+      <c r="T12" s="2" t="n"/>
+      <c r="U12" s="3" t="n"/>
+      <c r="V12" s="3" t="n"/>
+      <c r="W12" s="3" t="n"/>
+      <c r="X12" s="3" t="n"/>
+      <c r="Y12" s="2" t="n"/>
+      <c r="Z12" s="2" t="n"/>
+      <c r="AA12" s="2" t="n"/>
+      <c r="AB12" s="2" t="n"/>
+      <c r="AC12" s="3" t="n"/>
+      <c r="AD12" s="3" t="n"/>
+      <c r="AE12" s="3" t="n"/>
+      <c r="AF12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="3" t="n"/>
+      <c r="P13" s="3" t="n"/>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="2" t="n"/>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="3" t="n"/>
+      <c r="V13" s="3" t="n"/>
+      <c r="W13" s="3" t="n"/>
+      <c r="X13" s="3" t="n"/>
+      <c r="Y13" s="2" t="n"/>
+      <c r="Z13" s="2" t="n"/>
+      <c r="AA13" s="2" t="n"/>
+      <c r="AB13" s="2" t="n"/>
+      <c r="AC13" s="3" t="n"/>
+      <c r="AD13" s="3" t="n"/>
+      <c r="AE13" s="3" t="n"/>
+      <c r="AF13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="2" t="n"/>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="3" t="n"/>
+      <c r="V14" s="3" t="n"/>
+      <c r="W14" s="3" t="n"/>
+      <c r="X14" s="3" t="n"/>
+      <c r="Y14" s="2" t="n"/>
+      <c r="Z14" s="2" t="n"/>
+      <c r="AA14" s="2" t="n"/>
+      <c r="AB14" s="2" t="n"/>
+      <c r="AC14" s="3" t="n"/>
+      <c r="AD14" s="3" t="n"/>
+      <c r="AE14" s="3" t="n"/>
+      <c r="AF14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1:30</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="n"/>
+      <c r="Q15" s="2" t="n"/>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="2" t="n"/>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="3" t="n"/>
+      <c r="V15" s="3" t="n"/>
+      <c r="W15" s="3" t="n"/>
+      <c r="X15" s="3" t="n"/>
+      <c r="Y15" s="2" t="n"/>
+      <c r="Z15" s="2" t="n"/>
+      <c r="AA15" s="2" t="n"/>
+      <c r="AB15" s="2" t="n"/>
+      <c r="AC15" s="3" t="n"/>
+      <c r="AD15" s="3" t="n"/>
+      <c r="AE15" s="3" t="n"/>
+      <c r="AF15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="3" t="n"/>
+      <c r="P16" s="3" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="3" t="n"/>
+      <c r="V16" s="3" t="n"/>
+      <c r="W16" s="3" t="n"/>
+      <c r="X16" s="3" t="n"/>
+      <c r="Y16" s="2" t="n"/>
+      <c r="Z16" s="2" t="n"/>
+      <c r="AA16" s="2" t="n"/>
+      <c r="AB16" s="2" t="n"/>
+      <c r="AC16" s="3" t="n"/>
+      <c r="AD16" s="3" t="n"/>
+      <c r="AE16" s="3" t="n"/>
+      <c r="AF16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="3" t="inlineStr">
+        <is>
+          <t>(jd) ACC-W</t>
+        </is>
+      </c>
+      <c r="P17" s="3" t="n"/>
+      <c r="Q17" s="2" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="2" t="n"/>
+      <c r="T17" s="2" t="n"/>
+      <c r="U17" s="3" t="n"/>
+      <c r="V17" s="3" t="n"/>
+      <c r="W17" s="3" t="n"/>
+      <c r="X17" s="3" t="n"/>
+      <c r="Y17" s="2" t="n"/>
+      <c r="Z17" s="2" t="n"/>
+      <c r="AA17" s="2" t="n"/>
+      <c r="AB17" s="2" t="n"/>
+      <c r="AC17" s="3" t="n"/>
+      <c r="AD17" s="3" t="n"/>
+      <c r="AE17" s="3" t="n"/>
+      <c r="AF17" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Emmy</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+      <c r="X1" s="3" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="3" t="n"/>
+      <c r="AD1" s="3" t="n"/>
+      <c r="AE1" s="3" t="n"/>
+      <c r="AF1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC2" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AD2" s="3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE2" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF2" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="3" t="n"/>
+      <c r="V3" s="3" t="n"/>
+      <c r="W3" s="3" t="n"/>
+      <c r="X3" s="3" t="n"/>
+      <c r="Y3" s="2" t="n"/>
+      <c r="Z3" s="2" t="n"/>
+      <c r="AA3" s="2" t="n"/>
+      <c r="AB3" s="2" t="n"/>
+      <c r="AC3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n"/>
+      <c r="AE3" s="3" t="n"/>
+      <c r="AF3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7:45</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="3" t="n"/>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="n"/>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="3" t="n"/>
+      <c r="V4" s="3" t="n"/>
+      <c r="W4" s="3" t="n"/>
+      <c r="X4" s="3" t="n"/>
+      <c r="Y4" s="2" t="n"/>
+      <c r="Z4" s="2" t="n"/>
+      <c r="AA4" s="2" t="n"/>
+      <c r="AB4" s="2" t="n"/>
+      <c r="AC4" s="3" t="n"/>
+      <c r="AD4" s="3" t="n"/>
+      <c r="AE4" s="3" t="n"/>
+      <c r="AF4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
+      <c r="W5" s="3" t="n"/>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="2" t="n"/>
+      <c r="Z5" s="2" t="n"/>
+      <c r="AA5" s="2" t="n"/>
+      <c r="AB5" s="2" t="n"/>
+      <c r="AC5" s="3" t="n"/>
+      <c r="AD5" s="3" t="n"/>
+      <c r="AE5" s="3" t="n"/>
+      <c r="AF5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>(sd) D</t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="n"/>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="3" t="n"/>
+      <c r="V6" s="3" t="n"/>
+      <c r="W6" s="3" t="n"/>
+      <c r="X6" s="3" t="n"/>
+      <c r="Y6" s="2" t="n"/>
+      <c r="Z6" s="2" t="n"/>
+      <c r="AA6" s="2" t="n"/>
+      <c r="AB6" s="2" t="n"/>
+      <c r="AC6" s="3" t="n"/>
+      <c r="AD6" s="3" t="n"/>
+      <c r="AE6" s="3" t="n"/>
+      <c r="AF6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="n"/>
+      <c r="Q7" s="2" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="n"/>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="3" t="n"/>
+      <c r="V7" s="3" t="n"/>
+      <c r="W7" s="3" t="n"/>
+      <c r="X7" s="3" t="n"/>
+      <c r="Y7" s="2" t="n"/>
+      <c r="Z7" s="2" t="n"/>
+      <c r="AA7" s="2" t="n"/>
+      <c r="AB7" s="2" t="n"/>
+      <c r="AC7" s="3" t="n"/>
+      <c r="AD7" s="3" t="n"/>
+      <c r="AE7" s="3" t="n"/>
+      <c r="AF7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
       <c r="O8" s="3" t="n"/>
       <c r="P8" s="3" t="n"/>
       <c r="Q8" s="2" t="n"/>
@@ -1965,7 +2783,12 @@
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
-      <c r="I16" s="2" t="n"/>
+      <c r="I16" s="4" t="inlineStr">
+        <is>
+          <t>P
+fun times</t>
+        </is>
+      </c>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="2" t="n"/>
       <c r="L16" s="2" t="n"/>
@@ -2033,7 +2856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2050,7 +2873,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Emmy</t>
+          <t>Journee</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2298,8 +3121,18 @@
       <c r="F4" s="3" t="n"/>
       <c r="G4" s="3" t="n"/>
       <c r="H4" s="3" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>D
+another test
+another test</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="K4" s="2" t="n"/>
       <c r="L4" s="2" t="n"/>
       <c r="M4" s="3" t="n"/>
@@ -2375,11 +3208,7 @@
       <c r="G6" s="3" t="n"/>
       <c r="H6" s="3" t="n"/>
       <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="n"/>
       <c r="M6" s="3" t="n"/>
@@ -2416,11 +3245,808 @@
       <c r="F7" s="3" t="n"/>
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="n"/>
+      <c r="Q7" s="2" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="n"/>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="3" t="n"/>
+      <c r="V7" s="3" t="n"/>
+      <c r="W7" s="3" t="n"/>
+      <c r="X7" s="3" t="n"/>
+      <c r="Y7" s="2" t="n"/>
+      <c r="Z7" s="2" t="n"/>
+      <c r="AA7" s="2" t="n"/>
+      <c r="AB7" s="2" t="n"/>
+      <c r="AC7" s="3" t="n"/>
+      <c r="AD7" s="3" t="n"/>
+      <c r="AE7" s="3" t="n"/>
+      <c r="AF7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="inlineStr">
+        <is>
+          <t>(sd) D</t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="n"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="n"/>
+      <c r="T8" s="2" t="n"/>
+      <c r="U8" s="3" t="n"/>
+      <c r="V8" s="3" t="n"/>
+      <c r="W8" s="3" t="n"/>
+      <c r="X8" s="3" t="n"/>
+      <c r="Y8" s="2" t="n"/>
+      <c r="Z8" s="2" t="n"/>
+      <c r="AA8" s="2" t="n"/>
+      <c r="AB8" s="2" t="n"/>
+      <c r="AC8" s="3" t="n"/>
+      <c r="AD8" s="3" t="n"/>
+      <c r="AE8" s="3" t="n"/>
+      <c r="AF8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
+      <c r="P9" s="3" t="n"/>
+      <c r="Q9" s="2" t="n"/>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="2" t="n"/>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="3" t="n"/>
+      <c r="V9" s="3" t="n"/>
+      <c r="W9" s="3" t="n"/>
+      <c r="X9" s="3" t="n"/>
+      <c r="Y9" s="2" t="n"/>
+      <c r="Z9" s="2" t="n"/>
+      <c r="AA9" s="2" t="n"/>
+      <c r="AB9" s="2" t="n"/>
+      <c r="AC9" s="3" t="n"/>
+      <c r="AD9" s="3" t="n"/>
+      <c r="AE9" s="3" t="n"/>
+      <c r="AF9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="3" t="n"/>
+      <c r="O10" s="3" t="n"/>
+      <c r="P10" s="3" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="n"/>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="3" t="n"/>
+      <c r="V10" s="3" t="n"/>
+      <c r="W10" s="3" t="n"/>
+      <c r="X10" s="3" t="n"/>
+      <c r="Y10" s="2" t="n"/>
+      <c r="Z10" s="2" t="n"/>
+      <c r="AA10" s="2" t="n"/>
+      <c r="AB10" s="2" t="n"/>
+      <c r="AC10" s="3" t="n"/>
+      <c r="AD10" s="3" t="n"/>
+      <c r="AE10" s="3" t="n"/>
+      <c r="AF10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="3" t="n"/>
+      <c r="P11" s="3" t="n"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="3" t="n"/>
+      <c r="V11" s="3" t="n"/>
+      <c r="W11" s="3" t="n"/>
+      <c r="X11" s="3" t="n"/>
+      <c r="Y11" s="2" t="n"/>
+      <c r="Z11" s="2" t="n"/>
+      <c r="AA11" s="2" t="n"/>
+      <c r="AB11" s="2" t="n"/>
+      <c r="AC11" s="3" t="n"/>
+      <c r="AD11" s="3" t="n"/>
+      <c r="AE11" s="3" t="n"/>
+      <c r="AF11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
+      <c r="P12" s="3" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="2" t="n"/>
+      <c r="T12" s="2" t="n"/>
+      <c r="U12" s="3" t="n"/>
+      <c r="V12" s="3" t="n"/>
+      <c r="W12" s="3" t="n"/>
+      <c r="X12" s="3" t="n"/>
+      <c r="Y12" s="2" t="n"/>
+      <c r="Z12" s="2" t="n"/>
+      <c r="AA12" s="2" t="n"/>
+      <c r="AB12" s="2" t="n"/>
+      <c r="AC12" s="3" t="n"/>
+      <c r="AD12" s="3" t="n"/>
+      <c r="AE12" s="3" t="n"/>
+      <c r="AF12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="3" t="n"/>
+      <c r="P13" s="3" t="n"/>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="2" t="n"/>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="3" t="n"/>
+      <c r="V13" s="3" t="n"/>
+      <c r="W13" s="3" t="n"/>
+      <c r="X13" s="3" t="n"/>
+      <c r="Y13" s="2" t="n"/>
+      <c r="Z13" s="2" t="n"/>
+      <c r="AA13" s="2" t="n"/>
+      <c r="AB13" s="2" t="n"/>
+      <c r="AC13" s="3" t="n"/>
+      <c r="AD13" s="3" t="n"/>
+      <c r="AE13" s="3" t="n"/>
+      <c r="AF13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="2" t="n"/>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="3" t="n"/>
+      <c r="V14" s="3" t="n"/>
+      <c r="W14" s="3" t="n"/>
+      <c r="X14" s="3" t="n"/>
+      <c r="Y14" s="2" t="n"/>
+      <c r="Z14" s="2" t="n"/>
+      <c r="AA14" s="2" t="n"/>
+      <c r="AB14" s="2" t="n"/>
+      <c r="AC14" s="3" t="n"/>
+      <c r="AD14" s="3" t="n"/>
+      <c r="AE14" s="3" t="n"/>
+      <c r="AF14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1:30</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="n"/>
+      <c r="Q15" s="2" t="n"/>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="2" t="n"/>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="3" t="n"/>
+      <c r="V15" s="3" t="n"/>
+      <c r="W15" s="3" t="n"/>
+      <c r="X15" s="3" t="n"/>
+      <c r="Y15" s="2" t="n"/>
+      <c r="Z15" s="2" t="n"/>
+      <c r="AA15" s="2" t="n"/>
+      <c r="AB15" s="2" t="n"/>
+      <c r="AC15" s="3" t="n"/>
+      <c r="AD15" s="3" t="n"/>
+      <c r="AE15" s="3" t="n"/>
+      <c r="AF15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="3" t="n"/>
+      <c r="P16" s="3" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="3" t="n"/>
+      <c r="V16" s="3" t="n"/>
+      <c r="W16" s="3" t="n"/>
+      <c r="X16" s="3" t="n"/>
+      <c r="Y16" s="2" t="n"/>
+      <c r="Z16" s="2" t="n"/>
+      <c r="AA16" s="2" t="n"/>
+      <c r="AB16" s="2" t="n"/>
+      <c r="AC16" s="3" t="n"/>
+      <c r="AD16" s="3" t="n"/>
+      <c r="AE16" s="3" t="n"/>
+      <c r="AF16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="3" t="n"/>
+      <c r="P17" s="3" t="n"/>
+      <c r="Q17" s="2" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="2" t="n"/>
+      <c r="T17" s="2" t="n"/>
+      <c r="U17" s="3" t="n"/>
+      <c r="V17" s="3" t="n"/>
+      <c r="W17" s="3" t="n"/>
+      <c r="X17" s="3" t="n"/>
+      <c r="Y17" s="2" t="n"/>
+      <c r="Z17" s="2" t="n"/>
+      <c r="AA17" s="2" t="n"/>
+      <c r="AB17" s="2" t="n"/>
+      <c r="AC17" s="3" t="n"/>
+      <c r="AD17" s="3" t="n"/>
+      <c r="AE17" s="3" t="n"/>
+      <c r="AF17" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Braxton</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+      <c r="X1" s="3" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="3" t="n"/>
+      <c r="AD1" s="3" t="n"/>
+      <c r="AE1" s="3" t="n"/>
+      <c r="AF1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC2" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AD2" s="3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE2" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF2" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="3" t="n"/>
+      <c r="V3" s="3" t="n"/>
+      <c r="W3" s="3" t="n"/>
+      <c r="X3" s="3" t="n"/>
+      <c r="Y3" s="2" t="n"/>
+      <c r="Z3" s="2" t="n"/>
+      <c r="AA3" s="2" t="n"/>
+      <c r="AB3" s="2" t="n"/>
+      <c r="AC3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n"/>
+      <c r="AE3" s="3" t="n"/>
+      <c r="AF3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7:45</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>(sd) W</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="n"/>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="n"/>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="3" t="n"/>
+      <c r="V4" s="3" t="n"/>
+      <c r="W4" s="3" t="n"/>
+      <c r="X4" s="3" t="n"/>
+      <c r="Y4" s="2" t="n"/>
+      <c r="Z4" s="2" t="n"/>
+      <c r="AA4" s="2" t="n"/>
+      <c r="AB4" s="2" t="n"/>
+      <c r="AC4" s="3" t="n"/>
+      <c r="AD4" s="3" t="n"/>
+      <c r="AE4" s="3" t="n"/>
+      <c r="AF4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
+      <c r="W5" s="3" t="n"/>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="2" t="n"/>
+      <c r="Z5" s="2" t="n"/>
+      <c r="AA5" s="2" t="n"/>
+      <c r="AB5" s="2" t="n"/>
+      <c r="AC5" s="3" t="n"/>
+      <c r="AD5" s="3" t="n"/>
+      <c r="AE5" s="3" t="n"/>
+      <c r="AF5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="n"/>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="3" t="n"/>
+      <c r="V6" s="3" t="n"/>
+      <c r="W6" s="3" t="n"/>
+      <c r="X6" s="3" t="n"/>
+      <c r="Y6" s="2" t="n"/>
+      <c r="Z6" s="2" t="n"/>
+      <c r="AA6" s="2" t="n"/>
+      <c r="AB6" s="2" t="n"/>
+      <c r="AC6" s="3" t="n"/>
+      <c r="AD6" s="3" t="n"/>
+      <c r="AE6" s="3" t="n"/>
+      <c r="AF6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="n"/>
@@ -2572,6 +4198,812 @@
       <c r="F11" s="3" t="n"/>
       <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>S++</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="3" t="n"/>
+      <c r="P11" s="3" t="n"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="3" t="n"/>
+      <c r="V11" s="3" t="n"/>
+      <c r="W11" s="3" t="n"/>
+      <c r="X11" s="3" t="n"/>
+      <c r="Y11" s="2" t="n"/>
+      <c r="Z11" s="2" t="n"/>
+      <c r="AA11" s="2" t="n"/>
+      <c r="AB11" s="2" t="n"/>
+      <c r="AC11" s="3" t="n"/>
+      <c r="AD11" s="3" t="n"/>
+      <c r="AE11" s="3" t="n"/>
+      <c r="AF11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>S++</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
+      <c r="P12" s="3" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="2" t="n"/>
+      <c r="T12" s="2" t="n"/>
+      <c r="U12" s="3" t="n"/>
+      <c r="V12" s="3" t="n"/>
+      <c r="W12" s="3" t="n"/>
+      <c r="X12" s="3" t="n"/>
+      <c r="Y12" s="2" t="n"/>
+      <c r="Z12" s="2" t="n"/>
+      <c r="AA12" s="2" t="n"/>
+      <c r="AB12" s="2" t="n"/>
+      <c r="AC12" s="3" t="n"/>
+      <c r="AD12" s="3" t="n"/>
+      <c r="AE12" s="3" t="n"/>
+      <c r="AF12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="3" t="n"/>
+      <c r="P13" s="3" t="n"/>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="2" t="n"/>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="3" t="n"/>
+      <c r="V13" s="3" t="n"/>
+      <c r="W13" s="3" t="n"/>
+      <c r="X13" s="3" t="n"/>
+      <c r="Y13" s="2" t="n"/>
+      <c r="Z13" s="2" t="n"/>
+      <c r="AA13" s="2" t="n"/>
+      <c r="AB13" s="2" t="n"/>
+      <c r="AC13" s="3" t="n"/>
+      <c r="AD13" s="3" t="n"/>
+      <c r="AE13" s="3" t="n"/>
+      <c r="AF13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="2" t="n"/>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="3" t="n"/>
+      <c r="V14" s="3" t="n"/>
+      <c r="W14" s="3" t="n"/>
+      <c r="X14" s="3" t="n"/>
+      <c r="Y14" s="2" t="n"/>
+      <c r="Z14" s="2" t="n"/>
+      <c r="AA14" s="2" t="n"/>
+      <c r="AB14" s="2" t="n"/>
+      <c r="AC14" s="3" t="n"/>
+      <c r="AD14" s="3" t="n"/>
+      <c r="AE14" s="3" t="n"/>
+      <c r="AF14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1:30</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="n"/>
+      <c r="Q15" s="2" t="n"/>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="2" t="n"/>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="3" t="n"/>
+      <c r="V15" s="3" t="n"/>
+      <c r="W15" s="3" t="n"/>
+      <c r="X15" s="3" t="n"/>
+      <c r="Y15" s="2" t="n"/>
+      <c r="Z15" s="2" t="n"/>
+      <c r="AA15" s="2" t="n"/>
+      <c r="AB15" s="2" t="n"/>
+      <c r="AC15" s="3" t="n"/>
+      <c r="AD15" s="3" t="n"/>
+      <c r="AE15" s="3" t="n"/>
+      <c r="AF15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="3" t="n"/>
+      <c r="P16" s="3" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="3" t="n"/>
+      <c r="V16" s="3" t="n"/>
+      <c r="W16" s="3" t="n"/>
+      <c r="X16" s="3" t="n"/>
+      <c r="Y16" s="2" t="n"/>
+      <c r="Z16" s="2" t="n"/>
+      <c r="AA16" s="2" t="n"/>
+      <c r="AB16" s="2" t="n"/>
+      <c r="AC16" s="3" t="n"/>
+      <c r="AD16" s="3" t="n"/>
+      <c r="AE16" s="3" t="n"/>
+      <c r="AF16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="3" t="n"/>
+      <c r="P17" s="3" t="n"/>
+      <c r="Q17" s="2" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="2" t="n"/>
+      <c r="T17" s="2" t="n"/>
+      <c r="U17" s="3" t="n"/>
+      <c r="V17" s="3" t="n"/>
+      <c r="W17" s="3" t="n"/>
+      <c r="X17" s="3" t="n"/>
+      <c r="Y17" s="2" t="n"/>
+      <c r="Z17" s="2" t="n"/>
+      <c r="AA17" s="2" t="n"/>
+      <c r="AB17" s="2" t="n"/>
+      <c r="AC17" s="3" t="n"/>
+      <c r="AD17" s="3" t="n"/>
+      <c r="AE17" s="3" t="n"/>
+      <c r="AF17" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Zi</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+      <c r="X1" s="3" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="3" t="n"/>
+      <c r="AD1" s="3" t="n"/>
+      <c r="AE1" s="3" t="n"/>
+      <c r="AF1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC2" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AD2" s="3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE2" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF2" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="3" t="n"/>
+      <c r="V3" s="3" t="n"/>
+      <c r="W3" s="3" t="n"/>
+      <c r="X3" s="3" t="n"/>
+      <c r="Y3" s="2" t="n"/>
+      <c r="Z3" s="2" t="n"/>
+      <c r="AA3" s="2" t="n"/>
+      <c r="AB3" s="2" t="n"/>
+      <c r="AC3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n"/>
+      <c r="AE3" s="3" t="n"/>
+      <c r="AF3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7:45</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="3" t="n"/>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="n"/>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="3" t="n"/>
+      <c r="V4" s="3" t="n"/>
+      <c r="W4" s="3" t="n"/>
+      <c r="X4" s="3" t="n"/>
+      <c r="Y4" s="2" t="n"/>
+      <c r="Z4" s="2" t="n"/>
+      <c r="AA4" s="2" t="n"/>
+      <c r="AB4" s="2" t="n"/>
+      <c r="AC4" s="3" t="n"/>
+      <c r="AD4" s="3" t="n"/>
+      <c r="AE4" s="3" t="n"/>
+      <c r="AF4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>S++
+C+</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
+      <c r="W5" s="3" t="n"/>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="2" t="n"/>
+      <c r="Z5" s="2" t="n"/>
+      <c r="AA5" s="2" t="n"/>
+      <c r="AB5" s="2" t="n"/>
+      <c r="AC5" s="3" t="n"/>
+      <c r="AD5" s="3" t="n"/>
+      <c r="AE5" s="3" t="n"/>
+      <c r="AF5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="n"/>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="3" t="n"/>
+      <c r="V6" s="3" t="n"/>
+      <c r="W6" s="3" t="n"/>
+      <c r="X6" s="3" t="n"/>
+      <c r="Y6" s="2" t="n"/>
+      <c r="Z6" s="2" t="n"/>
+      <c r="AA6" s="2" t="n"/>
+      <c r="AB6" s="2" t="n"/>
+      <c r="AC6" s="3" t="n"/>
+      <c r="AD6" s="3" t="n"/>
+      <c r="AE6" s="3" t="n"/>
+      <c r="AF6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="n"/>
+      <c r="Q7" s="2" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="n"/>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="3" t="n"/>
+      <c r="V7" s="3" t="n"/>
+      <c r="W7" s="3" t="n"/>
+      <c r="X7" s="3" t="n"/>
+      <c r="Y7" s="2" t="n"/>
+      <c r="Z7" s="2" t="n"/>
+      <c r="AA7" s="2" t="n"/>
+      <c r="AB7" s="2" t="n"/>
+      <c r="AC7" s="3" t="n"/>
+      <c r="AD7" s="3" t="n"/>
+      <c r="AE7" s="3" t="n"/>
+      <c r="AF7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="n"/>
+      <c r="P8" s="3" t="n"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="n"/>
+      <c r="T8" s="2" t="n"/>
+      <c r="U8" s="3" t="n"/>
+      <c r="V8" s="3" t="n"/>
+      <c r="W8" s="3" t="n"/>
+      <c r="X8" s="3" t="n"/>
+      <c r="Y8" s="2" t="n"/>
+      <c r="Z8" s="2" t="n"/>
+      <c r="AA8" s="2" t="n"/>
+      <c r="AB8" s="2" t="n"/>
+      <c r="AC8" s="3" t="n"/>
+      <c r="AD8" s="3" t="n"/>
+      <c r="AE8" s="3" t="n"/>
+      <c r="AF8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
+      <c r="P9" s="3" t="n"/>
+      <c r="Q9" s="2" t="n"/>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="2" t="n"/>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="3" t="n"/>
+      <c r="V9" s="3" t="n"/>
+      <c r="W9" s="3" t="n"/>
+      <c r="X9" s="3" t="n"/>
+      <c r="Y9" s="2" t="n"/>
+      <c r="Z9" s="2" t="n"/>
+      <c r="AA9" s="2" t="n"/>
+      <c r="AB9" s="2" t="n"/>
+      <c r="AC9" s="3" t="n"/>
+      <c r="AD9" s="3" t="n"/>
+      <c r="AE9" s="3" t="n"/>
+      <c r="AF9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="3" t="n"/>
+      <c r="O10" s="3" t="n"/>
+      <c r="P10" s="3" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="n"/>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="3" t="n"/>
+      <c r="V10" s="3" t="n"/>
+      <c r="W10" s="3" t="n"/>
+      <c r="X10" s="3" t="n"/>
+      <c r="Y10" s="2" t="n"/>
+      <c r="Z10" s="2" t="n"/>
+      <c r="AA10" s="2" t="n"/>
+      <c r="AB10" s="2" t="n"/>
+      <c r="AC10" s="3" t="n"/>
+      <c r="AD10" s="3" t="n"/>
+      <c r="AE10" s="3" t="n"/>
+      <c r="AF10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
       <c r="I11" s="2" t="n"/>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
@@ -2762,12 +5194,7 @@
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
-      <c r="I16" s="4" t="inlineStr">
-        <is>
-          <t>P
-fun times</t>
-        </is>
-      </c>
+      <c r="I16" s="2" t="n"/>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="2" t="n"/>
       <c r="L16" s="2" t="n"/>
@@ -2835,7 +5262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2852,7 +5279,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Journee</t>
+          <t>Cami</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3100,18 +5527,813 @@
       <c r="F4" s="3" t="n"/>
       <c r="G4" s="3" t="n"/>
       <c r="H4" s="3" t="n"/>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>D
-another test
-another test</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="3" t="n"/>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="n"/>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="3" t="n"/>
+      <c r="V4" s="3" t="n"/>
+      <c r="W4" s="3" t="n"/>
+      <c r="X4" s="3" t="n"/>
+      <c r="Y4" s="2" t="n"/>
+      <c r="Z4" s="2" t="n"/>
+      <c r="AA4" s="2" t="n"/>
+      <c r="AB4" s="2" t="n"/>
+      <c r="AC4" s="3" t="n"/>
+      <c r="AD4" s="3" t="n"/>
+      <c r="AE4" s="3" t="n"/>
+      <c r="AF4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8:30</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>sd::P</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
+      <c r="W5" s="3" t="n"/>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="2" t="n"/>
+      <c r="Z5" s="2" t="n"/>
+      <c r="AA5" s="2" t="n"/>
+      <c r="AB5" s="2" t="n"/>
+      <c r="AC5" s="3" t="n"/>
+      <c r="AD5" s="3" t="n"/>
+      <c r="AE5" s="3" t="n"/>
+      <c r="AF5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="n"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="n"/>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="3" t="n"/>
+      <c r="V6" s="3" t="n"/>
+      <c r="W6" s="3" t="n"/>
+      <c r="X6" s="3" t="n"/>
+      <c r="Y6" s="2" t="n"/>
+      <c r="Z6" s="2" t="n"/>
+      <c r="AA6" s="2" t="n"/>
+      <c r="AB6" s="2" t="n"/>
+      <c r="AC6" s="3" t="n"/>
+      <c r="AD6" s="3" t="n"/>
+      <c r="AE6" s="3" t="n"/>
+      <c r="AF6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="n"/>
+      <c r="Q7" s="2" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="n"/>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="3" t="n"/>
+      <c r="V7" s="3" t="n"/>
+      <c r="W7" s="3" t="n"/>
+      <c r="X7" s="3" t="n"/>
+      <c r="Y7" s="2" t="n"/>
+      <c r="Z7" s="2" t="n"/>
+      <c r="AA7" s="2" t="n"/>
+      <c r="AB7" s="2" t="n"/>
+      <c r="AC7" s="3" t="n"/>
+      <c r="AD7" s="3" t="n"/>
+      <c r="AE7" s="3" t="n"/>
+      <c r="AF7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="n"/>
+      <c r="P8" s="3" t="n"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="n"/>
+      <c r="T8" s="2" t="n"/>
+      <c r="U8" s="3" t="n"/>
+      <c r="V8" s="3" t="n"/>
+      <c r="W8" s="3" t="n"/>
+      <c r="X8" s="3" t="n"/>
+      <c r="Y8" s="2" t="n"/>
+      <c r="Z8" s="2" t="n"/>
+      <c r="AA8" s="2" t="n"/>
+      <c r="AB8" s="2" t="n"/>
+      <c r="AC8" s="3" t="n"/>
+      <c r="AD8" s="3" t="n"/>
+      <c r="AE8" s="3" t="n"/>
+      <c r="AF8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
+      <c r="P9" s="3" t="n"/>
+      <c r="Q9" s="2" t="n"/>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="2" t="n"/>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="3" t="n"/>
+      <c r="V9" s="3" t="n"/>
+      <c r="W9" s="3" t="n"/>
+      <c r="X9" s="3" t="n"/>
+      <c r="Y9" s="2" t="n"/>
+      <c r="Z9" s="2" t="n"/>
+      <c r="AA9" s="2" t="n"/>
+      <c r="AB9" s="2" t="n"/>
+      <c r="AC9" s="3" t="n"/>
+      <c r="AD9" s="3" t="n"/>
+      <c r="AE9" s="3" t="n"/>
+      <c r="AF9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="3" t="n"/>
+      <c r="O10" s="3" t="n"/>
+      <c r="P10" s="3" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="n"/>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="3" t="n"/>
+      <c r="V10" s="3" t="n"/>
+      <c r="W10" s="3" t="n"/>
+      <c r="X10" s="3" t="n"/>
+      <c r="Y10" s="2" t="n"/>
+      <c r="Z10" s="2" t="n"/>
+      <c r="AA10" s="2" t="n"/>
+      <c r="AB10" s="2" t="n"/>
+      <c r="AC10" s="3" t="n"/>
+      <c r="AD10" s="3" t="n"/>
+      <c r="AE10" s="3" t="n"/>
+      <c r="AF10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="3" t="n"/>
+      <c r="P11" s="3" t="n"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="3" t="n"/>
+      <c r="V11" s="3" t="n"/>
+      <c r="W11" s="3" t="n"/>
+      <c r="X11" s="3" t="n"/>
+      <c r="Y11" s="2" t="n"/>
+      <c r="Z11" s="2" t="n"/>
+      <c r="AA11" s="2" t="n"/>
+      <c r="AB11" s="2" t="n"/>
+      <c r="AC11" s="3" t="n"/>
+      <c r="AD11" s="3" t="n"/>
+      <c r="AE11" s="3" t="n"/>
+      <c r="AF11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
+      <c r="P12" s="3" t="n"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="2" t="n"/>
+      <c r="T12" s="2" t="n"/>
+      <c r="U12" s="3" t="n"/>
+      <c r="V12" s="3" t="n"/>
+      <c r="W12" s="3" t="n"/>
+      <c r="X12" s="3" t="n"/>
+      <c r="Y12" s="2" t="n"/>
+      <c r="Z12" s="2" t="n"/>
+      <c r="AA12" s="2" t="n"/>
+      <c r="AB12" s="2" t="n"/>
+      <c r="AC12" s="3" t="n"/>
+      <c r="AD12" s="3" t="n"/>
+      <c r="AE12" s="3" t="n"/>
+      <c r="AF12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="3" t="n"/>
+      <c r="P13" s="3" t="n"/>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="2" t="n"/>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="3" t="n"/>
+      <c r="V13" s="3" t="n"/>
+      <c r="W13" s="3" t="n"/>
+      <c r="X13" s="3" t="n"/>
+      <c r="Y13" s="2" t="n"/>
+      <c r="Z13" s="2" t="n"/>
+      <c r="AA13" s="2" t="n"/>
+      <c r="AB13" s="2" t="n"/>
+      <c r="AC13" s="3" t="n"/>
+      <c r="AD13" s="3" t="n"/>
+      <c r="AE13" s="3" t="n"/>
+      <c r="AF13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1:00</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
+      <c r="P14" s="3" t="n"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="2" t="n"/>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="3" t="n"/>
+      <c r="V14" s="3" t="n"/>
+      <c r="W14" s="3" t="n"/>
+      <c r="X14" s="3" t="n"/>
+      <c r="Y14" s="2" t="n"/>
+      <c r="Z14" s="2" t="n"/>
+      <c r="AA14" s="2" t="n"/>
+      <c r="AB14" s="2" t="n"/>
+      <c r="AC14" s="3" t="n"/>
+      <c r="AD14" s="3" t="n"/>
+      <c r="AE14" s="3" t="n"/>
+      <c r="AF14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1:30</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="n"/>
+      <c r="Q15" s="2" t="n"/>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="2" t="n"/>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="3" t="n"/>
+      <c r="V15" s="3" t="n"/>
+      <c r="W15" s="3" t="n"/>
+      <c r="X15" s="3" t="n"/>
+      <c r="Y15" s="2" t="n"/>
+      <c r="Z15" s="2" t="n"/>
+      <c r="AA15" s="2" t="n"/>
+      <c r="AB15" s="2" t="n"/>
+      <c r="AC15" s="3" t="n"/>
+      <c r="AD15" s="3" t="n"/>
+      <c r="AE15" s="3" t="n"/>
+      <c r="AF15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2:00</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="3" t="n"/>
+      <c r="P16" s="3" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="3" t="n"/>
+      <c r="V16" s="3" t="n"/>
+      <c r="W16" s="3" t="n"/>
+      <c r="X16" s="3" t="n"/>
+      <c r="Y16" s="2" t="n"/>
+      <c r="Z16" s="2" t="n"/>
+      <c r="AA16" s="2" t="n"/>
+      <c r="AB16" s="2" t="n"/>
+      <c r="AC16" s="3" t="n"/>
+      <c r="AD16" s="3" t="n"/>
+      <c r="AE16" s="3" t="n"/>
+      <c r="AF16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="3" t="n"/>
+      <c r="P17" s="3" t="n"/>
+      <c r="Q17" s="2" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="2" t="n"/>
+      <c r="T17" s="2" t="n"/>
+      <c r="U17" s="3" t="n"/>
+      <c r="V17" s="3" t="n"/>
+      <c r="W17" s="3" t="n"/>
+      <c r="X17" s="3" t="n"/>
+      <c r="Y17" s="2" t="n"/>
+      <c r="Z17" s="2" t="n"/>
+      <c r="AA17" s="2" t="n"/>
+      <c r="AB17" s="2" t="n"/>
+      <c r="AC17" s="3" t="n"/>
+      <c r="AD17" s="3" t="n"/>
+      <c r="AE17" s="3" t="n"/>
+      <c r="AF17" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Arturo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+      <c r="X1" s="3" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="3" t="n"/>
+      <c r="AD1" s="3" t="n"/>
+      <c r="AE1" s="3" t="n"/>
+      <c r="AF1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AC2" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AD2" s="3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="AE2" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF2" s="3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>7:30</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>(test) P</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="3" t="n"/>
+      <c r="V3" s="3" t="n"/>
+      <c r="W3" s="3" t="n"/>
+      <c r="X3" s="3" t="n"/>
+      <c r="Y3" s="2" t="n"/>
+      <c r="Z3" s="2" t="n"/>
+      <c r="AA3" s="2" t="n"/>
+      <c r="AB3" s="2" t="n"/>
+      <c r="AC3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n"/>
+      <c r="AE3" s="3" t="n"/>
+      <c r="AF3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7:45</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n"/>
       <c r="L4" s="2" t="n"/>
       <c r="M4" s="3" t="n"/>
@@ -3634,7 +6856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3651,7 +6873,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Braxton</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3901,11 +7123,7 @@
       <c r="H4" s="3" t="n"/>
       <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
+      <c r="K4" s="2" t="n"/>
       <c r="L4" s="2" t="n"/>
       <c r="M4" s="3" t="n"/>
       <c r="N4" s="3" t="n"/>
@@ -3985,7 +7203,12 @@
       <c r="L6" s="2" t="n"/>
       <c r="M6" s="3" t="n"/>
       <c r="N6" s="3" t="n"/>
-      <c r="O6" s="3" t="n"/>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>(jd) D
++</t>
+        </is>
+      </c>
       <c r="P6" s="3" t="n"/>
       <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="n"/>
@@ -4099,7 +7322,11 @@
       <c r="L9" s="2" t="n"/>
       <c r="M9" s="3" t="n"/>
       <c r="N9" s="3" t="n"/>
-      <c r="O9" s="3" t="n"/>
+      <c r="O9" s="3" t="inlineStr">
+        <is>
+          <t>(sd) +</t>
+        </is>
+      </c>
       <c r="P9" s="3" t="n"/>
       <c r="Q9" s="2" t="n"/>
       <c r="R9" s="2" t="n"/>
@@ -4169,17 +7396,18 @@
       <c r="F11" s="3" t="n"/>
       <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>S++</t>
-        </is>
-      </c>
+      <c r="I11" s="2" t="n"/>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
       <c r="L11" s="2" t="n"/>
       <c r="M11" s="3" t="n"/>
       <c r="N11" s="3" t="n"/>
-      <c r="O11" s="3" t="n"/>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>(jd) -
+C+</t>
+        </is>
+      </c>
       <c r="P11" s="3" t="n"/>
       <c r="Q11" s="2" t="n"/>
       <c r="R11" s="2" t="n"/>
@@ -4212,11 +7440,7 @@
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
       <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>S++</t>
-        </is>
-      </c>
+      <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
       <c r="M12" s="3" t="n"/>
@@ -4433,2392 +7657,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AF17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Zi</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
-      <c r="O1" s="3" t="n"/>
-      <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="3" t="n"/>
-      <c r="V1" s="3" t="n"/>
-      <c r="W1" s="3" t="n"/>
-      <c r="X1" s="3" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="3" t="n"/>
-      <c r="AD1" s="3" t="n"/>
-      <c r="AE1" s="3" t="n"/>
-      <c r="AF1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Dates</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="V2" s="3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="X2" s="3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y2" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="Z2" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AA2" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AB2" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AC2" s="3" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AD2" s="3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AE2" s="3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AF2" s="3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>7:30</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="3" t="n"/>
-      <c r="V3" s="3" t="n"/>
-      <c r="W3" s="3" t="n"/>
-      <c r="X3" s="3" t="n"/>
-      <c r="Y3" s="2" t="n"/>
-      <c r="Z3" s="2" t="n"/>
-      <c r="AA3" s="2" t="n"/>
-      <c r="AB3" s="2" t="n"/>
-      <c r="AC3" s="3" t="n"/>
-      <c r="AD3" s="3" t="n"/>
-      <c r="AE3" s="3" t="n"/>
-      <c r="AF3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>7:45</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="3" t="n"/>
-      <c r="N4" s="3" t="n"/>
-      <c r="O4" s="3" t="n"/>
-      <c r="P4" s="3" t="n"/>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="3" t="n"/>
-      <c r="V4" s="3" t="n"/>
-      <c r="W4" s="3" t="n"/>
-      <c r="X4" s="3" t="n"/>
-      <c r="Y4" s="2" t="n"/>
-      <c r="Z4" s="2" t="n"/>
-      <c r="AA4" s="2" t="n"/>
-      <c r="AB4" s="2" t="n"/>
-      <c r="AC4" s="3" t="n"/>
-      <c r="AD4" s="3" t="n"/>
-      <c r="AE4" s="3" t="n"/>
-      <c r="AF4" s="3" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>8:30</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>S++
-C+</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="3" t="n"/>
-      <c r="N5" s="3" t="n"/>
-      <c r="O5" s="3" t="n"/>
-      <c r="P5" s="3" t="n"/>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="3" t="n"/>
-      <c r="V5" s="3" t="n"/>
-      <c r="W5" s="3" t="n"/>
-      <c r="X5" s="3" t="n"/>
-      <c r="Y5" s="2" t="n"/>
-      <c r="Z5" s="2" t="n"/>
-      <c r="AA5" s="2" t="n"/>
-      <c r="AB5" s="2" t="n"/>
-      <c r="AC5" s="3" t="n"/>
-      <c r="AD5" s="3" t="n"/>
-      <c r="AE5" s="3" t="n"/>
-      <c r="AF5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>9:00</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
-      <c r="O6" s="3" t="n"/>
-      <c r="P6" s="3" t="n"/>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="3" t="n"/>
-      <c r="V6" s="3" t="n"/>
-      <c r="W6" s="3" t="n"/>
-      <c r="X6" s="3" t="n"/>
-      <c r="Y6" s="2" t="n"/>
-      <c r="Z6" s="2" t="n"/>
-      <c r="AA6" s="2" t="n"/>
-      <c r="AB6" s="2" t="n"/>
-      <c r="AC6" s="3" t="n"/>
-      <c r="AD6" s="3" t="n"/>
-      <c r="AE6" s="3" t="n"/>
-      <c r="AF6" s="3" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>9:30</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="3" t="n"/>
-      <c r="O7" s="3" t="n"/>
-      <c r="P7" s="3" t="n"/>
-      <c r="Q7" s="2" t="n"/>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="n"/>
-      <c r="T7" s="2" t="n"/>
-      <c r="U7" s="3" t="n"/>
-      <c r="V7" s="3" t="n"/>
-      <c r="W7" s="3" t="n"/>
-      <c r="X7" s="3" t="n"/>
-      <c r="Y7" s="2" t="n"/>
-      <c r="Z7" s="2" t="n"/>
-      <c r="AA7" s="2" t="n"/>
-      <c r="AB7" s="2" t="n"/>
-      <c r="AC7" s="3" t="n"/>
-      <c r="AD7" s="3" t="n"/>
-      <c r="AE7" s="3" t="n"/>
-      <c r="AF7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="3" t="n"/>
-      <c r="O8" s="3" t="n"/>
-      <c r="P8" s="3" t="n"/>
-      <c r="Q8" s="2" t="n"/>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="n"/>
-      <c r="T8" s="2" t="n"/>
-      <c r="U8" s="3" t="n"/>
-      <c r="V8" s="3" t="n"/>
-      <c r="W8" s="3" t="n"/>
-      <c r="X8" s="3" t="n"/>
-      <c r="Y8" s="2" t="n"/>
-      <c r="Z8" s="2" t="n"/>
-      <c r="AA8" s="2" t="n"/>
-      <c r="AB8" s="2" t="n"/>
-      <c r="AC8" s="3" t="n"/>
-      <c r="AD8" s="3" t="n"/>
-      <c r="AE8" s="3" t="n"/>
-      <c r="AF8" s="3" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="3" t="n"/>
-      <c r="O9" s="3" t="n"/>
-      <c r="P9" s="3" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="n"/>
-      <c r="T9" s="2" t="n"/>
-      <c r="U9" s="3" t="n"/>
-      <c r="V9" s="3" t="n"/>
-      <c r="W9" s="3" t="n"/>
-      <c r="X9" s="3" t="n"/>
-      <c r="Y9" s="2" t="n"/>
-      <c r="Z9" s="2" t="n"/>
-      <c r="AA9" s="2" t="n"/>
-      <c r="AB9" s="2" t="n"/>
-      <c r="AC9" s="3" t="n"/>
-      <c r="AD9" s="3" t="n"/>
-      <c r="AE9" s="3" t="n"/>
-      <c r="AF9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="3" t="n"/>
-      <c r="N10" s="3" t="n"/>
-      <c r="O10" s="3" t="n"/>
-      <c r="P10" s="3" t="n"/>
-      <c r="Q10" s="2" t="n"/>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="n"/>
-      <c r="T10" s="2" t="n"/>
-      <c r="U10" s="3" t="n"/>
-      <c r="V10" s="3" t="n"/>
-      <c r="W10" s="3" t="n"/>
-      <c r="X10" s="3" t="n"/>
-      <c r="Y10" s="2" t="n"/>
-      <c r="Z10" s="2" t="n"/>
-      <c r="AA10" s="2" t="n"/>
-      <c r="AB10" s="2" t="n"/>
-      <c r="AC10" s="3" t="n"/>
-      <c r="AD10" s="3" t="n"/>
-      <c r="AE10" s="3" t="n"/>
-      <c r="AF10" s="3" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="3" t="n"/>
-      <c r="N11" s="3" t="n"/>
-      <c r="O11" s="3" t="n"/>
-      <c r="P11" s="3" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
-      <c r="T11" s="2" t="n"/>
-      <c r="U11" s="3" t="n"/>
-      <c r="V11" s="3" t="n"/>
-      <c r="W11" s="3" t="n"/>
-      <c r="X11" s="3" t="n"/>
-      <c r="Y11" s="2" t="n"/>
-      <c r="Z11" s="2" t="n"/>
-      <c r="AA11" s="2" t="n"/>
-      <c r="AB11" s="2" t="n"/>
-      <c r="AC11" s="3" t="n"/>
-      <c r="AD11" s="3" t="n"/>
-      <c r="AE11" s="3" t="n"/>
-      <c r="AF11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
-      <c r="H12" s="3" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
-      <c r="M12" s="3" t="n"/>
-      <c r="N12" s="3" t="n"/>
-      <c r="O12" s="3" t="n"/>
-      <c r="P12" s="3" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="R12" s="2" t="n"/>
-      <c r="S12" s="2" t="n"/>
-      <c r="T12" s="2" t="n"/>
-      <c r="U12" s="3" t="n"/>
-      <c r="V12" s="3" t="n"/>
-      <c r="W12" s="3" t="n"/>
-      <c r="X12" s="3" t="n"/>
-      <c r="Y12" s="2" t="n"/>
-      <c r="Z12" s="2" t="n"/>
-      <c r="AA12" s="2" t="n"/>
-      <c r="AB12" s="2" t="n"/>
-      <c r="AC12" s="3" t="n"/>
-      <c r="AD12" s="3" t="n"/>
-      <c r="AE12" s="3" t="n"/>
-      <c r="AF12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="3" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="3" t="n"/>
-      <c r="N13" s="3" t="n"/>
-      <c r="O13" s="3" t="n"/>
-      <c r="P13" s="3" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="R13" s="2" t="n"/>
-      <c r="S13" s="2" t="n"/>
-      <c r="T13" s="2" t="n"/>
-      <c r="U13" s="3" t="n"/>
-      <c r="V13" s="3" t="n"/>
-      <c r="W13" s="3" t="n"/>
-      <c r="X13" s="3" t="n"/>
-      <c r="Y13" s="2" t="n"/>
-      <c r="Z13" s="2" t="n"/>
-      <c r="AA13" s="2" t="n"/>
-      <c r="AB13" s="2" t="n"/>
-      <c r="AC13" s="3" t="n"/>
-      <c r="AD13" s="3" t="n"/>
-      <c r="AE13" s="3" t="n"/>
-      <c r="AF13" s="3" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1:00</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
-      <c r="M14" s="3" t="n"/>
-      <c r="N14" s="3" t="n"/>
-      <c r="O14" s="3" t="n"/>
-      <c r="P14" s="3" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-      <c r="R14" s="2" t="n"/>
-      <c r="S14" s="2" t="n"/>
-      <c r="T14" s="2" t="n"/>
-      <c r="U14" s="3" t="n"/>
-      <c r="V14" s="3" t="n"/>
-      <c r="W14" s="3" t="n"/>
-      <c r="X14" s="3" t="n"/>
-      <c r="Y14" s="2" t="n"/>
-      <c r="Z14" s="2" t="n"/>
-      <c r="AA14" s="2" t="n"/>
-      <c r="AB14" s="2" t="n"/>
-      <c r="AC14" s="3" t="n"/>
-      <c r="AD14" s="3" t="n"/>
-      <c r="AE14" s="3" t="n"/>
-      <c r="AF14" s="3" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1:30</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
-      <c r="M15" s="3" t="n"/>
-      <c r="N15" s="3" t="n"/>
-      <c r="O15" s="3" t="n"/>
-      <c r="P15" s="3" t="n"/>
-      <c r="Q15" s="2" t="n"/>
-      <c r="R15" s="2" t="n"/>
-      <c r="S15" s="2" t="n"/>
-      <c r="T15" s="2" t="n"/>
-      <c r="U15" s="3" t="n"/>
-      <c r="V15" s="3" t="n"/>
-      <c r="W15" s="3" t="n"/>
-      <c r="X15" s="3" t="n"/>
-      <c r="Y15" s="2" t="n"/>
-      <c r="Z15" s="2" t="n"/>
-      <c r="AA15" s="2" t="n"/>
-      <c r="AB15" s="2" t="n"/>
-      <c r="AC15" s="3" t="n"/>
-      <c r="AD15" s="3" t="n"/>
-      <c r="AE15" s="3" t="n"/>
-      <c r="AF15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2:00</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
-      <c r="M16" s="3" t="n"/>
-      <c r="N16" s="3" t="n"/>
-      <c r="O16" s="3" t="n"/>
-      <c r="P16" s="3" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="n"/>
-      <c r="T16" s="2" t="n"/>
-      <c r="U16" s="3" t="n"/>
-      <c r="V16" s="3" t="n"/>
-      <c r="W16" s="3" t="n"/>
-      <c r="X16" s="3" t="n"/>
-      <c r="Y16" s="2" t="n"/>
-      <c r="Z16" s="2" t="n"/>
-      <c r="AA16" s="2" t="n"/>
-      <c r="AB16" s="2" t="n"/>
-      <c r="AC16" s="3" t="n"/>
-      <c r="AD16" s="3" t="n"/>
-      <c r="AE16" s="3" t="n"/>
-      <c r="AF16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AC</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
-      <c r="M17" s="3" t="n"/>
-      <c r="N17" s="3" t="n"/>
-      <c r="O17" s="3" t="n"/>
-      <c r="P17" s="3" t="n"/>
-      <c r="Q17" s="2" t="n"/>
-      <c r="R17" s="2" t="n"/>
-      <c r="S17" s="2" t="n"/>
-      <c r="T17" s="2" t="n"/>
-      <c r="U17" s="3" t="n"/>
-      <c r="V17" s="3" t="n"/>
-      <c r="W17" s="3" t="n"/>
-      <c r="X17" s="3" t="n"/>
-      <c r="Y17" s="2" t="n"/>
-      <c r="Z17" s="2" t="n"/>
-      <c r="AA17" s="2" t="n"/>
-      <c r="AB17" s="2" t="n"/>
-      <c r="AC17" s="3" t="n"/>
-      <c r="AD17" s="3" t="n"/>
-      <c r="AE17" s="3" t="n"/>
-      <c r="AF17" s="3" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AF17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Cami</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
-      <c r="O1" s="3" t="n"/>
-      <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="3" t="n"/>
-      <c r="V1" s="3" t="n"/>
-      <c r="W1" s="3" t="n"/>
-      <c r="X1" s="3" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="3" t="n"/>
-      <c r="AD1" s="3" t="n"/>
-      <c r="AE1" s="3" t="n"/>
-      <c r="AF1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Dates</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="V2" s="3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="X2" s="3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y2" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="Z2" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AA2" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AB2" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AC2" s="3" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AD2" s="3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AE2" s="3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AF2" s="3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>7:30</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="3" t="n"/>
-      <c r="V3" s="3" t="n"/>
-      <c r="W3" s="3" t="n"/>
-      <c r="X3" s="3" t="n"/>
-      <c r="Y3" s="2" t="n"/>
-      <c r="Z3" s="2" t="n"/>
-      <c r="AA3" s="2" t="n"/>
-      <c r="AB3" s="2" t="n"/>
-      <c r="AC3" s="3" t="n"/>
-      <c r="AD3" s="3" t="n"/>
-      <c r="AE3" s="3" t="n"/>
-      <c r="AF3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>7:45</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="3" t="n"/>
-      <c r="N4" s="3" t="n"/>
-      <c r="O4" s="3" t="n"/>
-      <c r="P4" s="3" t="n"/>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="3" t="n"/>
-      <c r="V4" s="3" t="n"/>
-      <c r="W4" s="3" t="n"/>
-      <c r="X4" s="3" t="n"/>
-      <c r="Y4" s="2" t="n"/>
-      <c r="Z4" s="2" t="n"/>
-      <c r="AA4" s="2" t="n"/>
-      <c r="AB4" s="2" t="n"/>
-      <c r="AC4" s="3" t="n"/>
-      <c r="AD4" s="3" t="n"/>
-      <c r="AE4" s="3" t="n"/>
-      <c r="AF4" s="3" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>8:30</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="3" t="n"/>
-      <c r="N5" s="3" t="n"/>
-      <c r="O5" s="3" t="n"/>
-      <c r="P5" s="3" t="n"/>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="3" t="n"/>
-      <c r="V5" s="3" t="n"/>
-      <c r="W5" s="3" t="n"/>
-      <c r="X5" s="3" t="n"/>
-      <c r="Y5" s="2" t="n"/>
-      <c r="Z5" s="2" t="n"/>
-      <c r="AA5" s="2" t="n"/>
-      <c r="AB5" s="2" t="n"/>
-      <c r="AC5" s="3" t="n"/>
-      <c r="AD5" s="3" t="n"/>
-      <c r="AE5" s="3" t="n"/>
-      <c r="AF5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>9:00</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
-      <c r="O6" s="3" t="n"/>
-      <c r="P6" s="3" t="n"/>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="3" t="n"/>
-      <c r="V6" s="3" t="n"/>
-      <c r="W6" s="3" t="n"/>
-      <c r="X6" s="3" t="n"/>
-      <c r="Y6" s="2" t="n"/>
-      <c r="Z6" s="2" t="n"/>
-      <c r="AA6" s="2" t="n"/>
-      <c r="AB6" s="2" t="n"/>
-      <c r="AC6" s="3" t="n"/>
-      <c r="AD6" s="3" t="n"/>
-      <c r="AE6" s="3" t="n"/>
-      <c r="AF6" s="3" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>9:30</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="3" t="n"/>
-      <c r="O7" s="3" t="n"/>
-      <c r="P7" s="3" t="n"/>
-      <c r="Q7" s="2" t="n"/>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="n"/>
-      <c r="T7" s="2" t="n"/>
-      <c r="U7" s="3" t="n"/>
-      <c r="V7" s="3" t="n"/>
-      <c r="W7" s="3" t="n"/>
-      <c r="X7" s="3" t="n"/>
-      <c r="Y7" s="2" t="n"/>
-      <c r="Z7" s="2" t="n"/>
-      <c r="AA7" s="2" t="n"/>
-      <c r="AB7" s="2" t="n"/>
-      <c r="AC7" s="3" t="n"/>
-      <c r="AD7" s="3" t="n"/>
-      <c r="AE7" s="3" t="n"/>
-      <c r="AF7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="3" t="n"/>
-      <c r="O8" s="3" t="n"/>
-      <c r="P8" s="3" t="n"/>
-      <c r="Q8" s="2" t="n"/>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="n"/>
-      <c r="T8" s="2" t="n"/>
-      <c r="U8" s="3" t="n"/>
-      <c r="V8" s="3" t="n"/>
-      <c r="W8" s="3" t="n"/>
-      <c r="X8" s="3" t="n"/>
-      <c r="Y8" s="2" t="n"/>
-      <c r="Z8" s="2" t="n"/>
-      <c r="AA8" s="2" t="n"/>
-      <c r="AB8" s="2" t="n"/>
-      <c r="AC8" s="3" t="n"/>
-      <c r="AD8" s="3" t="n"/>
-      <c r="AE8" s="3" t="n"/>
-      <c r="AF8" s="3" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="3" t="n"/>
-      <c r="O9" s="3" t="n"/>
-      <c r="P9" s="3" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="n"/>
-      <c r="T9" s="2" t="n"/>
-      <c r="U9" s="3" t="n"/>
-      <c r="V9" s="3" t="n"/>
-      <c r="W9" s="3" t="n"/>
-      <c r="X9" s="3" t="n"/>
-      <c r="Y9" s="2" t="n"/>
-      <c r="Z9" s="2" t="n"/>
-      <c r="AA9" s="2" t="n"/>
-      <c r="AB9" s="2" t="n"/>
-      <c r="AC9" s="3" t="n"/>
-      <c r="AD9" s="3" t="n"/>
-      <c r="AE9" s="3" t="n"/>
-      <c r="AF9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="3" t="n"/>
-      <c r="N10" s="3" t="n"/>
-      <c r="O10" s="3" t="n"/>
-      <c r="P10" s="3" t="n"/>
-      <c r="Q10" s="2" t="n"/>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="n"/>
-      <c r="T10" s="2" t="n"/>
-      <c r="U10" s="3" t="n"/>
-      <c r="V10" s="3" t="n"/>
-      <c r="W10" s="3" t="n"/>
-      <c r="X10" s="3" t="n"/>
-      <c r="Y10" s="2" t="n"/>
-      <c r="Z10" s="2" t="n"/>
-      <c r="AA10" s="2" t="n"/>
-      <c r="AB10" s="2" t="n"/>
-      <c r="AC10" s="3" t="n"/>
-      <c r="AD10" s="3" t="n"/>
-      <c r="AE10" s="3" t="n"/>
-      <c r="AF10" s="3" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="3" t="n"/>
-      <c r="N11" s="3" t="n"/>
-      <c r="O11" s="3" t="n"/>
-      <c r="P11" s="3" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
-      <c r="T11" s="2" t="n"/>
-      <c r="U11" s="3" t="n"/>
-      <c r="V11" s="3" t="n"/>
-      <c r="W11" s="3" t="n"/>
-      <c r="X11" s="3" t="n"/>
-      <c r="Y11" s="2" t="n"/>
-      <c r="Z11" s="2" t="n"/>
-      <c r="AA11" s="2" t="n"/>
-      <c r="AB11" s="2" t="n"/>
-      <c r="AC11" s="3" t="n"/>
-      <c r="AD11" s="3" t="n"/>
-      <c r="AE11" s="3" t="n"/>
-      <c r="AF11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
-      <c r="H12" s="3" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
-      <c r="M12" s="3" t="n"/>
-      <c r="N12" s="3" t="n"/>
-      <c r="O12" s="3" t="n"/>
-      <c r="P12" s="3" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="R12" s="2" t="n"/>
-      <c r="S12" s="2" t="n"/>
-      <c r="T12" s="2" t="n"/>
-      <c r="U12" s="3" t="n"/>
-      <c r="V12" s="3" t="n"/>
-      <c r="W12" s="3" t="n"/>
-      <c r="X12" s="3" t="n"/>
-      <c r="Y12" s="2" t="n"/>
-      <c r="Z12" s="2" t="n"/>
-      <c r="AA12" s="2" t="n"/>
-      <c r="AB12" s="2" t="n"/>
-      <c r="AC12" s="3" t="n"/>
-      <c r="AD12" s="3" t="n"/>
-      <c r="AE12" s="3" t="n"/>
-      <c r="AF12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="3" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="3" t="n"/>
-      <c r="N13" s="3" t="n"/>
-      <c r="O13" s="3" t="n"/>
-      <c r="P13" s="3" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="R13" s="2" t="n"/>
-      <c r="S13" s="2" t="n"/>
-      <c r="T13" s="2" t="n"/>
-      <c r="U13" s="3" t="n"/>
-      <c r="V13" s="3" t="n"/>
-      <c r="W13" s="3" t="n"/>
-      <c r="X13" s="3" t="n"/>
-      <c r="Y13" s="2" t="n"/>
-      <c r="Z13" s="2" t="n"/>
-      <c r="AA13" s="2" t="n"/>
-      <c r="AB13" s="2" t="n"/>
-      <c r="AC13" s="3" t="n"/>
-      <c r="AD13" s="3" t="n"/>
-      <c r="AE13" s="3" t="n"/>
-      <c r="AF13" s="3" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1:00</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
-      <c r="M14" s="3" t="n"/>
-      <c r="N14" s="3" t="n"/>
-      <c r="O14" s="3" t="n"/>
-      <c r="P14" s="3" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-      <c r="R14" s="2" t="n"/>
-      <c r="S14" s="2" t="n"/>
-      <c r="T14" s="2" t="n"/>
-      <c r="U14" s="3" t="n"/>
-      <c r="V14" s="3" t="n"/>
-      <c r="W14" s="3" t="n"/>
-      <c r="X14" s="3" t="n"/>
-      <c r="Y14" s="2" t="n"/>
-      <c r="Z14" s="2" t="n"/>
-      <c r="AA14" s="2" t="n"/>
-      <c r="AB14" s="2" t="n"/>
-      <c r="AC14" s="3" t="n"/>
-      <c r="AD14" s="3" t="n"/>
-      <c r="AE14" s="3" t="n"/>
-      <c r="AF14" s="3" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1:30</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
-      <c r="M15" s="3" t="n"/>
-      <c r="N15" s="3" t="n"/>
-      <c r="O15" s="3" t="n"/>
-      <c r="P15" s="3" t="n"/>
-      <c r="Q15" s="2" t="n"/>
-      <c r="R15" s="2" t="n"/>
-      <c r="S15" s="2" t="n"/>
-      <c r="T15" s="2" t="n"/>
-      <c r="U15" s="3" t="n"/>
-      <c r="V15" s="3" t="n"/>
-      <c r="W15" s="3" t="n"/>
-      <c r="X15" s="3" t="n"/>
-      <c r="Y15" s="2" t="n"/>
-      <c r="Z15" s="2" t="n"/>
-      <c r="AA15" s="2" t="n"/>
-      <c r="AB15" s="2" t="n"/>
-      <c r="AC15" s="3" t="n"/>
-      <c r="AD15" s="3" t="n"/>
-      <c r="AE15" s="3" t="n"/>
-      <c r="AF15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2:00</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
-      <c r="M16" s="3" t="n"/>
-      <c r="N16" s="3" t="n"/>
-      <c r="O16" s="3" t="n"/>
-      <c r="P16" s="3" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="n"/>
-      <c r="T16" s="2" t="n"/>
-      <c r="U16" s="3" t="n"/>
-      <c r="V16" s="3" t="n"/>
-      <c r="W16" s="3" t="n"/>
-      <c r="X16" s="3" t="n"/>
-      <c r="Y16" s="2" t="n"/>
-      <c r="Z16" s="2" t="n"/>
-      <c r="AA16" s="2" t="n"/>
-      <c r="AB16" s="2" t="n"/>
-      <c r="AC16" s="3" t="n"/>
-      <c r="AD16" s="3" t="n"/>
-      <c r="AE16" s="3" t="n"/>
-      <c r="AF16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AC</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
-      <c r="M17" s="3" t="n"/>
-      <c r="N17" s="3" t="n"/>
-      <c r="O17" s="3" t="n"/>
-      <c r="P17" s="3" t="n"/>
-      <c r="Q17" s="2" t="n"/>
-      <c r="R17" s="2" t="n"/>
-      <c r="S17" s="2" t="n"/>
-      <c r="T17" s="2" t="n"/>
-      <c r="U17" s="3" t="n"/>
-      <c r="V17" s="3" t="n"/>
-      <c r="W17" s="3" t="n"/>
-      <c r="X17" s="3" t="n"/>
-      <c r="Y17" s="2" t="n"/>
-      <c r="Z17" s="2" t="n"/>
-      <c r="AA17" s="2" t="n"/>
-      <c r="AB17" s="2" t="n"/>
-      <c r="AC17" s="3" t="n"/>
-      <c r="AD17" s="3" t="n"/>
-      <c r="AE17" s="3" t="n"/>
-      <c r="AF17" s="3" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AF17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Arturo</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
-      <c r="O1" s="3" t="n"/>
-      <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="3" t="n"/>
-      <c r="V1" s="3" t="n"/>
-      <c r="W1" s="3" t="n"/>
-      <c r="X1" s="3" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="3" t="n"/>
-      <c r="AD1" s="3" t="n"/>
-      <c r="AE1" s="3" t="n"/>
-      <c r="AF1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Dates</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="V2" s="3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="X2" s="3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Y2" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="Z2" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AA2" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AB2" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AC2" s="3" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AD2" s="3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AE2" s="3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AF2" s="3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>7:30</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="3" t="n"/>
-      <c r="V3" s="3" t="n"/>
-      <c r="W3" s="3" t="n"/>
-      <c r="X3" s="3" t="n"/>
-      <c r="Y3" s="2" t="n"/>
-      <c r="Z3" s="2" t="n"/>
-      <c r="AA3" s="2" t="n"/>
-      <c r="AB3" s="2" t="n"/>
-      <c r="AC3" s="3" t="n"/>
-      <c r="AD3" s="3" t="n"/>
-      <c r="AE3" s="3" t="n"/>
-      <c r="AF3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>7:45</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="3" t="n"/>
-      <c r="N4" s="3" t="n"/>
-      <c r="O4" s="3" t="n"/>
-      <c r="P4" s="3" t="n"/>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="3" t="n"/>
-      <c r="V4" s="3" t="n"/>
-      <c r="W4" s="3" t="n"/>
-      <c r="X4" s="3" t="n"/>
-      <c r="Y4" s="2" t="n"/>
-      <c r="Z4" s="2" t="n"/>
-      <c r="AA4" s="2" t="n"/>
-      <c r="AB4" s="2" t="n"/>
-      <c r="AC4" s="3" t="n"/>
-      <c r="AD4" s="3" t="n"/>
-      <c r="AE4" s="3" t="n"/>
-      <c r="AF4" s="3" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>8:30</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="3" t="n"/>
-      <c r="N5" s="3" t="n"/>
-      <c r="O5" s="3" t="n"/>
-      <c r="P5" s="3" t="n"/>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="3" t="n"/>
-      <c r="V5" s="3" t="n"/>
-      <c r="W5" s="3" t="n"/>
-      <c r="X5" s="3" t="n"/>
-      <c r="Y5" s="2" t="n"/>
-      <c r="Z5" s="2" t="n"/>
-      <c r="AA5" s="2" t="n"/>
-      <c r="AB5" s="2" t="n"/>
-      <c r="AC5" s="3" t="n"/>
-      <c r="AD5" s="3" t="n"/>
-      <c r="AE5" s="3" t="n"/>
-      <c r="AF5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>9:00</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
-      <c r="O6" s="3" t="n"/>
-      <c r="P6" s="3" t="n"/>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="3" t="n"/>
-      <c r="V6" s="3" t="n"/>
-      <c r="W6" s="3" t="n"/>
-      <c r="X6" s="3" t="n"/>
-      <c r="Y6" s="2" t="n"/>
-      <c r="Z6" s="2" t="n"/>
-      <c r="AA6" s="2" t="n"/>
-      <c r="AB6" s="2" t="n"/>
-      <c r="AC6" s="3" t="n"/>
-      <c r="AD6" s="3" t="n"/>
-      <c r="AE6" s="3" t="n"/>
-      <c r="AF6" s="3" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>9:30</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="3" t="n"/>
-      <c r="O7" s="3" t="n"/>
-      <c r="P7" s="3" t="n"/>
-      <c r="Q7" s="2" t="n"/>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="n"/>
-      <c r="T7" s="2" t="n"/>
-      <c r="U7" s="3" t="n"/>
-      <c r="V7" s="3" t="n"/>
-      <c r="W7" s="3" t="n"/>
-      <c r="X7" s="3" t="n"/>
-      <c r="Y7" s="2" t="n"/>
-      <c r="Z7" s="2" t="n"/>
-      <c r="AA7" s="2" t="n"/>
-      <c r="AB7" s="2" t="n"/>
-      <c r="AC7" s="3" t="n"/>
-      <c r="AD7" s="3" t="n"/>
-      <c r="AE7" s="3" t="n"/>
-      <c r="AF7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="3" t="n"/>
-      <c r="O8" s="3" t="n"/>
-      <c r="P8" s="3" t="n"/>
-      <c r="Q8" s="2" t="n"/>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="n"/>
-      <c r="T8" s="2" t="n"/>
-      <c r="U8" s="3" t="n"/>
-      <c r="V8" s="3" t="n"/>
-      <c r="W8" s="3" t="n"/>
-      <c r="X8" s="3" t="n"/>
-      <c r="Y8" s="2" t="n"/>
-      <c r="Z8" s="2" t="n"/>
-      <c r="AA8" s="2" t="n"/>
-      <c r="AB8" s="2" t="n"/>
-      <c r="AC8" s="3" t="n"/>
-      <c r="AD8" s="3" t="n"/>
-      <c r="AE8" s="3" t="n"/>
-      <c r="AF8" s="3" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="3" t="n"/>
-      <c r="O9" s="3" t="n"/>
-      <c r="P9" s="3" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="n"/>
-      <c r="T9" s="2" t="n"/>
-      <c r="U9" s="3" t="n"/>
-      <c r="V9" s="3" t="n"/>
-      <c r="W9" s="3" t="n"/>
-      <c r="X9" s="3" t="n"/>
-      <c r="Y9" s="2" t="n"/>
-      <c r="Z9" s="2" t="n"/>
-      <c r="AA9" s="2" t="n"/>
-      <c r="AB9" s="2" t="n"/>
-      <c r="AC9" s="3" t="n"/>
-      <c r="AD9" s="3" t="n"/>
-      <c r="AE9" s="3" t="n"/>
-      <c r="AF9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-      <c r="M10" s="3" t="n"/>
-      <c r="N10" s="3" t="n"/>
-      <c r="O10" s="3" t="n"/>
-      <c r="P10" s="3" t="n"/>
-      <c r="Q10" s="2" t="n"/>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="n"/>
-      <c r="T10" s="2" t="n"/>
-      <c r="U10" s="3" t="n"/>
-      <c r="V10" s="3" t="n"/>
-      <c r="W10" s="3" t="n"/>
-      <c r="X10" s="3" t="n"/>
-      <c r="Y10" s="2" t="n"/>
-      <c r="Z10" s="2" t="n"/>
-      <c r="AA10" s="2" t="n"/>
-      <c r="AB10" s="2" t="n"/>
-      <c r="AC10" s="3" t="n"/>
-      <c r="AD10" s="3" t="n"/>
-      <c r="AE10" s="3" t="n"/>
-      <c r="AF10" s="3" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-      <c r="M11" s="3" t="n"/>
-      <c r="N11" s="3" t="n"/>
-      <c r="O11" s="3" t="n"/>
-      <c r="P11" s="3" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
-      <c r="T11" s="2" t="n"/>
-      <c r="U11" s="3" t="n"/>
-      <c r="V11" s="3" t="n"/>
-      <c r="W11" s="3" t="n"/>
-      <c r="X11" s="3" t="n"/>
-      <c r="Y11" s="2" t="n"/>
-      <c r="Z11" s="2" t="n"/>
-      <c r="AA11" s="2" t="n"/>
-      <c r="AB11" s="2" t="n"/>
-      <c r="AC11" s="3" t="n"/>
-      <c r="AD11" s="3" t="n"/>
-      <c r="AE11" s="3" t="n"/>
-      <c r="AF11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
-      <c r="H12" s="3" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
-      <c r="M12" s="3" t="n"/>
-      <c r="N12" s="3" t="n"/>
-      <c r="O12" s="3" t="n"/>
-      <c r="P12" s="3" t="n"/>
-      <c r="Q12" s="2" t="n"/>
-      <c r="R12" s="2" t="n"/>
-      <c r="S12" s="2" t="n"/>
-      <c r="T12" s="2" t="n"/>
-      <c r="U12" s="3" t="n"/>
-      <c r="V12" s="3" t="n"/>
-      <c r="W12" s="3" t="n"/>
-      <c r="X12" s="3" t="n"/>
-      <c r="Y12" s="2" t="n"/>
-      <c r="Z12" s="2" t="n"/>
-      <c r="AA12" s="2" t="n"/>
-      <c r="AB12" s="2" t="n"/>
-      <c r="AC12" s="3" t="n"/>
-      <c r="AD12" s="3" t="n"/>
-      <c r="AE12" s="3" t="n"/>
-      <c r="AF12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="3" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-      <c r="M13" s="3" t="n"/>
-      <c r="N13" s="3" t="n"/>
-      <c r="O13" s="3" t="n"/>
-      <c r="P13" s="3" t="n"/>
-      <c r="Q13" s="2" t="n"/>
-      <c r="R13" s="2" t="n"/>
-      <c r="S13" s="2" t="n"/>
-      <c r="T13" s="2" t="n"/>
-      <c r="U13" s="3" t="n"/>
-      <c r="V13" s="3" t="n"/>
-      <c r="W13" s="3" t="n"/>
-      <c r="X13" s="3" t="n"/>
-      <c r="Y13" s="2" t="n"/>
-      <c r="Z13" s="2" t="n"/>
-      <c r="AA13" s="2" t="n"/>
-      <c r="AB13" s="2" t="n"/>
-      <c r="AC13" s="3" t="n"/>
-      <c r="AD13" s="3" t="n"/>
-      <c r="AE13" s="3" t="n"/>
-      <c r="AF13" s="3" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1:00</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
-      <c r="M14" s="3" t="n"/>
-      <c r="N14" s="3" t="n"/>
-      <c r="O14" s="3" t="n"/>
-      <c r="P14" s="3" t="n"/>
-      <c r="Q14" s="2" t="n"/>
-      <c r="R14" s="2" t="n"/>
-      <c r="S14" s="2" t="n"/>
-      <c r="T14" s="2" t="n"/>
-      <c r="U14" s="3" t="n"/>
-      <c r="V14" s="3" t="n"/>
-      <c r="W14" s="3" t="n"/>
-      <c r="X14" s="3" t="n"/>
-      <c r="Y14" s="2" t="n"/>
-      <c r="Z14" s="2" t="n"/>
-      <c r="AA14" s="2" t="n"/>
-      <c r="AB14" s="2" t="n"/>
-      <c r="AC14" s="3" t="n"/>
-      <c r="AD14" s="3" t="n"/>
-      <c r="AE14" s="3" t="n"/>
-      <c r="AF14" s="3" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1:30</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
-      <c r="M15" s="3" t="n"/>
-      <c r="N15" s="3" t="n"/>
-      <c r="O15" s="3" t="n"/>
-      <c r="P15" s="3" t="n"/>
-      <c r="Q15" s="2" t="n"/>
-      <c r="R15" s="2" t="n"/>
-      <c r="S15" s="2" t="n"/>
-      <c r="T15" s="2" t="n"/>
-      <c r="U15" s="3" t="n"/>
-      <c r="V15" s="3" t="n"/>
-      <c r="W15" s="3" t="n"/>
-      <c r="X15" s="3" t="n"/>
-      <c r="Y15" s="2" t="n"/>
-      <c r="Z15" s="2" t="n"/>
-      <c r="AA15" s="2" t="n"/>
-      <c r="AB15" s="2" t="n"/>
-      <c r="AC15" s="3" t="n"/>
-      <c r="AD15" s="3" t="n"/>
-      <c r="AE15" s="3" t="n"/>
-      <c r="AF15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2:00</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
-      <c r="M16" s="3" t="n"/>
-      <c r="N16" s="3" t="n"/>
-      <c r="O16" s="3" t="n"/>
-      <c r="P16" s="3" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="n"/>
-      <c r="T16" s="2" t="n"/>
-      <c r="U16" s="3" t="n"/>
-      <c r="V16" s="3" t="n"/>
-      <c r="W16" s="3" t="n"/>
-      <c r="X16" s="3" t="n"/>
-      <c r="Y16" s="2" t="n"/>
-      <c r="Z16" s="2" t="n"/>
-      <c r="AA16" s="2" t="n"/>
-      <c r="AB16" s="2" t="n"/>
-      <c r="AC16" s="3" t="n"/>
-      <c r="AD16" s="3" t="n"/>
-      <c r="AE16" s="3" t="n"/>
-      <c r="AF16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AC</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
-      <c r="M17" s="3" t="n"/>
-      <c r="N17" s="3" t="n"/>
-      <c r="O17" s="3" t="n"/>
-      <c r="P17" s="3" t="n"/>
-      <c r="Q17" s="2" t="n"/>
-      <c r="R17" s="2" t="n"/>
-      <c r="S17" s="2" t="n"/>
-      <c r="T17" s="2" t="n"/>
-      <c r="U17" s="3" t="n"/>
-      <c r="V17" s="3" t="n"/>
-      <c r="W17" s="3" t="n"/>
-      <c r="X17" s="3" t="n"/>
-      <c r="Y17" s="2" t="n"/>
-      <c r="Z17" s="2" t="n"/>
-      <c r="AA17" s="2" t="n"/>
-      <c r="AB17" s="2" t="n"/>
-      <c r="AC17" s="3" t="n"/>
-      <c r="AD17" s="3" t="n"/>
-      <c r="AE17" s="3" t="n"/>
-      <c r="AF17" s="3" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>